--- a/Examples/AcPowerSystem/IEEE_39Bus/IEEE_39Bus.xlsx
+++ b/Examples/AcPowerSystem/IEEE_39Bus/IEEE_39Bus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Simplus-Grid-Tool-master\Simplus-Grid-Tool-master\Examples\AcPowerSystem\IEEE_39Bus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saizhaoyang\Desktop\IEEE_39Bus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC597D93-765C-436F-912B-24AF1B2D1657}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFF2AFE-7F55-46A3-90A7-7872D59B3CA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32768" yWindow="32768" windowWidth="17985" windowHeight="7178" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2163,7 +2163,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2670,7 +2670,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C37">
         <v>2.2000000000000002</v>
